--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Spon2-Itgb1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Spon2-Itgb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -91,13 +97,7 @@
     <t>Itgb1</t>
   </si>
   <si>
-    <t>M1</t>
-  </si>
-  <si>
     <t>M2</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.151827622914273</v>
+        <v>0.1526473333333333</v>
       </c>
       <c r="H2">
-        <v>0.151827622914273</v>
+        <v>0.457942</v>
       </c>
       <c r="I2">
-        <v>0.04818493703132608</v>
+        <v>0.04089624487414953</v>
       </c>
       <c r="J2">
-        <v>0.04818493703132608</v>
+        <v>0.04089624487414954</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>73.0288833697539</v>
+        <v>94.799851</v>
       </c>
       <c r="N2">
-        <v>73.0288833697539</v>
+        <v>284.399553</v>
       </c>
       <c r="O2">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="P2">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="Q2">
-        <v>11.08780176611342</v>
+        <v>14.47094445554733</v>
       </c>
       <c r="R2">
-        <v>11.08780176611342</v>
+        <v>130.238500099926</v>
       </c>
       <c r="S2">
-        <v>0.006676649845549896</v>
+        <v>0.006878599410117811</v>
       </c>
       <c r="T2">
-        <v>0.006676649845549896</v>
+        <v>0.006878599410117814</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.151827622914273</v>
+        <v>0.1526473333333333</v>
       </c>
       <c r="H3">
-        <v>0.151827622914273</v>
+        <v>0.457942</v>
       </c>
       <c r="I3">
-        <v>0.04818493703132608</v>
+        <v>0.04089624487414953</v>
       </c>
       <c r="J3">
-        <v>0.04818493703132608</v>
+        <v>0.04089624487414954</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>144.889666909794</v>
+        <v>145.6413626666667</v>
       </c>
       <c r="N3">
-        <v>144.889666909794</v>
+        <v>436.924088</v>
       </c>
       <c r="O3">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076977</v>
       </c>
       <c r="P3">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076978</v>
       </c>
       <c r="Q3">
-        <v>21.99825371175482</v>
+        <v>22.23176563409955</v>
       </c>
       <c r="R3">
-        <v>21.99825371175482</v>
+        <v>200.085890706896</v>
       </c>
       <c r="S3">
-        <v>0.01324650641715422</v>
+        <v>0.01056761778378415</v>
       </c>
       <c r="T3">
-        <v>0.01324650641715422</v>
+        <v>0.01056761778378415</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.151827622914273</v>
+        <v>0.1526473333333333</v>
       </c>
       <c r="H4">
-        <v>0.151827622914273</v>
+        <v>0.457942</v>
       </c>
       <c r="I4">
-        <v>0.04818493703132608</v>
+        <v>0.04089624487414953</v>
       </c>
       <c r="J4">
-        <v>0.04818493703132608</v>
+        <v>0.04089624487414954</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>68.0197589553707</v>
+        <v>72.77597066666667</v>
       </c>
       <c r="N4">
-        <v>68.0197589553707</v>
+        <v>218.327912</v>
       </c>
       <c r="O4">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="P4">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="Q4">
-        <v>10.32727831339577</v>
+        <v>11.10905785301155</v>
       </c>
       <c r="R4">
-        <v>10.32727831339577</v>
+        <v>99.981520677104</v>
       </c>
       <c r="S4">
-        <v>0.006218691730836572</v>
+        <v>0.005280564722601563</v>
       </c>
       <c r="T4">
-        <v>0.006218691730836572</v>
+        <v>0.005280564722601564</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.151827622914273</v>
+        <v>0.1526473333333333</v>
       </c>
       <c r="H5">
-        <v>0.151827622914273</v>
+        <v>0.457942</v>
       </c>
       <c r="I5">
-        <v>0.04818493703132608</v>
+        <v>0.04089624487414953</v>
       </c>
       <c r="J5">
-        <v>0.04818493703132608</v>
+        <v>0.04089624487414954</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>76.3464549930079</v>
+        <v>76.38610333333334</v>
       </c>
       <c r="N5">
-        <v>76.3464549930079</v>
+        <v>229.15831</v>
       </c>
       <c r="O5">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="P5">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="Q5">
-        <v>11.59150077951992</v>
+        <v>11.66013497755778</v>
       </c>
       <c r="R5">
-        <v>11.59150077951992</v>
+        <v>104.94121479802</v>
       </c>
       <c r="S5">
-        <v>0.006979958112689216</v>
+        <v>0.005542512986965189</v>
       </c>
       <c r="T5">
-        <v>0.006979958112689216</v>
+        <v>0.00554251298696519</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.151827622914273</v>
+        <v>0.1526473333333333</v>
       </c>
       <c r="H6">
-        <v>0.151827622914273</v>
+        <v>0.457942</v>
       </c>
       <c r="I6">
-        <v>0.04818493703132608</v>
+        <v>0.04089624487414953</v>
       </c>
       <c r="J6">
-        <v>0.04818493703132608</v>
+        <v>0.04089624487414954</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>57.0117183713711</v>
+        <v>58.18688599999999</v>
       </c>
       <c r="N6">
-        <v>57.0117183713711</v>
+        <v>174.560658</v>
       </c>
       <c r="O6">
-        <v>0.1081724772446483</v>
+        <v>0.10323668399826</v>
       </c>
       <c r="P6">
-        <v>0.1081724772446483</v>
+        <v>0.1032366839982601</v>
       </c>
       <c r="Q6">
-        <v>8.655953678583263</v>
+        <v>8.882072982870666</v>
       </c>
       <c r="R6">
-        <v>8.655953678583263</v>
+        <v>79.93865684583599</v>
       </c>
       <c r="S6">
-        <v>0.005212284004555933</v>
+        <v>0.004221992708788037</v>
       </c>
       <c r="T6">
-        <v>0.005212284004555933</v>
+        <v>0.004221992708788038</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.151827622914273</v>
+        <v>0.1526473333333333</v>
       </c>
       <c r="H7">
-        <v>0.151827622914273</v>
+        <v>0.457942</v>
       </c>
       <c r="I7">
-        <v>0.04818493703132608</v>
+        <v>0.04089624487414953</v>
       </c>
       <c r="J7">
-        <v>0.04818493703132608</v>
+        <v>0.04089624487414954</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>107.748102341015</v>
+        <v>115.8358916666667</v>
       </c>
       <c r="N7">
-        <v>107.748102341015</v>
+        <v>347.5076749999999</v>
       </c>
       <c r="O7">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="P7">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="Q7">
-        <v>16.35913825196012</v>
+        <v>17.68203996720555</v>
       </c>
       <c r="R7">
-        <v>16.35913825196012</v>
+        <v>159.13835970485</v>
       </c>
       <c r="S7">
-        <v>0.009850846920540236</v>
+        <v>0.008404957261892785</v>
       </c>
       <c r="T7">
-        <v>0.009850846920540236</v>
+        <v>0.008404957261892786</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.32270397629794</v>
+        <v>2.541923333333334</v>
       </c>
       <c r="H8">
-        <v>2.32270397629794</v>
+        <v>7.62577</v>
       </c>
       <c r="I8">
-        <v>0.7371474484818903</v>
+        <v>0.6810149697427694</v>
       </c>
       <c r="J8">
-        <v>0.7371474484818903</v>
+        <v>0.6810149697427693</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>73.0288833697539</v>
+        <v>94.799851</v>
       </c>
       <c r="N8">
-        <v>73.0288833697539</v>
+        <v>284.399553</v>
       </c>
       <c r="O8">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="P8">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="Q8">
-        <v>169.6244777875259</v>
+        <v>240.9739532534234</v>
       </c>
       <c r="R8">
-        <v>169.6244777875259</v>
+        <v>2168.76557928081</v>
       </c>
       <c r="S8">
-        <v>0.1021413682631654</v>
+        <v>0.1145442370948594</v>
       </c>
       <c r="T8">
-        <v>0.1021413682631654</v>
+        <v>0.1145442370948594</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.32270397629794</v>
+        <v>2.541923333333334</v>
       </c>
       <c r="H9">
-        <v>2.32270397629794</v>
+        <v>7.62577</v>
       </c>
       <c r="I9">
-        <v>0.7371474484818903</v>
+        <v>0.6810149697427694</v>
       </c>
       <c r="J9">
-        <v>0.7371474484818903</v>
+        <v>0.6810149697427693</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>144.889666909794</v>
+        <v>145.6413626666667</v>
       </c>
       <c r="N9">
-        <v>144.889666909794</v>
+        <v>436.924088</v>
       </c>
       <c r="O9">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076977</v>
       </c>
       <c r="P9">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076978</v>
       </c>
       <c r="Q9">
-        <v>336.5358054558625</v>
+        <v>370.2091780608622</v>
       </c>
       <c r="R9">
-        <v>336.5358054558625</v>
+        <v>3331.88260254776</v>
       </c>
       <c r="S9">
-        <v>0.202648981368514</v>
+        <v>0.1759747362483626</v>
       </c>
       <c r="T9">
-        <v>0.202648981368514</v>
+        <v>0.1759747362483626</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.32270397629794</v>
+        <v>2.541923333333334</v>
       </c>
       <c r="H10">
-        <v>2.32270397629794</v>
+        <v>7.62577</v>
       </c>
       <c r="I10">
-        <v>0.7371474484818903</v>
+        <v>0.6810149697427694</v>
       </c>
       <c r="J10">
-        <v>0.7371474484818903</v>
+        <v>0.6810149697427693</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>68.0197589553707</v>
+        <v>72.77597066666667</v>
       </c>
       <c r="N10">
-        <v>68.0197589553707</v>
+        <v>218.327912</v>
       </c>
       <c r="O10">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="P10">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="Q10">
-        <v>157.9897645924669</v>
+        <v>184.9909379435822</v>
       </c>
       <c r="R10">
-        <v>157.9897645924669</v>
+        <v>1664.91844149224</v>
       </c>
       <c r="S10">
-        <v>0.09513538928776415</v>
+        <v>0.08793334536835086</v>
       </c>
       <c r="T10">
-        <v>0.09513538928776415</v>
+        <v>0.08793334536835085</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.32270397629794</v>
+        <v>2.541923333333334</v>
       </c>
       <c r="H11">
-        <v>2.32270397629794</v>
+        <v>7.62577</v>
       </c>
       <c r="I11">
-        <v>0.7371474484818903</v>
+        <v>0.6810149697427694</v>
       </c>
       <c r="J11">
-        <v>0.7371474484818903</v>
+        <v>0.6810149697427693</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>76.3464549930079</v>
+        <v>76.38610333333334</v>
       </c>
       <c r="N11">
-        <v>76.3464549930079</v>
+        <v>229.15831</v>
       </c>
       <c r="O11">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="P11">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="Q11">
-        <v>177.3302145885112</v>
+        <v>194.1676184054111</v>
       </c>
       <c r="R11">
-        <v>177.3302145885112</v>
+        <v>1747.5085656487</v>
       </c>
       <c r="S11">
-        <v>0.1067814680329307</v>
+        <v>0.09229537640270938</v>
       </c>
       <c r="T11">
-        <v>0.1067814680329307</v>
+        <v>0.09229537640270938</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>27</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.32270397629794</v>
+        <v>2.541923333333334</v>
       </c>
       <c r="H12">
-        <v>2.32270397629794</v>
+        <v>7.62577</v>
       </c>
       <c r="I12">
-        <v>0.7371474484818903</v>
+        <v>0.6810149697427694</v>
       </c>
       <c r="J12">
-        <v>0.7371474484818903</v>
+        <v>0.6810149697427693</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>57.0117183713711</v>
+        <v>58.18688599999999</v>
       </c>
       <c r="N12">
-        <v>57.0117183713711</v>
+        <v>174.560658</v>
       </c>
       <c r="O12">
-        <v>0.1081724772446483</v>
+        <v>0.10323668399826</v>
       </c>
       <c r="P12">
-        <v>0.1081724772446483</v>
+        <v>0.1032366839982601</v>
       </c>
       <c r="Q12">
-        <v>132.421344956762</v>
+        <v>147.9066032174067</v>
       </c>
       <c r="R12">
-        <v>132.421344956762</v>
+        <v>1331.15942895666</v>
       </c>
       <c r="S12">
-        <v>0.07973906559685785</v>
+        <v>0.07030572722941891</v>
       </c>
       <c r="T12">
-        <v>0.07973906559685785</v>
+        <v>0.07030572722941891</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.32270397629794</v>
+        <v>2.541923333333334</v>
       </c>
       <c r="H13">
-        <v>2.32270397629794</v>
+        <v>7.62577</v>
       </c>
       <c r="I13">
-        <v>0.7371474484818903</v>
+        <v>0.6810149697427694</v>
       </c>
       <c r="J13">
-        <v>0.7371474484818903</v>
+        <v>0.6810149697427693</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>107.748102341015</v>
+        <v>115.8358916666667</v>
       </c>
       <c r="N13">
-        <v>107.748102341015</v>
+        <v>347.5076749999999</v>
       </c>
       <c r="O13">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="P13">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="Q13">
-        <v>250.2669457460329</v>
+        <v>294.4459558649722</v>
       </c>
       <c r="R13">
-        <v>250.2669457460329</v>
+        <v>2650.01360278475</v>
       </c>
       <c r="S13">
-        <v>0.1507011759326581</v>
+        <v>0.1399615473990684</v>
       </c>
       <c r="T13">
-        <v>0.1507011759326581</v>
+        <v>0.1399615473990683</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.6764037816012261</v>
+        <v>0.05304766666666666</v>
       </c>
       <c r="H14">
-        <v>0.6764037816012261</v>
+        <v>0.159143</v>
       </c>
       <c r="I14">
-        <v>0.2146676144867836</v>
+        <v>0.0142121733713151</v>
       </c>
       <c r="J14">
-        <v>0.2146676144867836</v>
+        <v>0.0142121733713151</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>73.0288833697539</v>
+        <v>94.799851</v>
       </c>
       <c r="N14">
-        <v>73.0288833697539</v>
+        <v>284.399553</v>
       </c>
       <c r="O14">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="P14">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="Q14">
-        <v>49.39701287741642</v>
+        <v>5.028910895897666</v>
       </c>
       <c r="R14">
-        <v>49.39701287741642</v>
+        <v>45.260198063079</v>
       </c>
       <c r="S14">
-        <v>0.02974499051801094</v>
+        <v>0.002390435788646551</v>
       </c>
       <c r="T14">
-        <v>0.02974499051801094</v>
+        <v>0.002390435788646551</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.6764037816012261</v>
+        <v>0.05304766666666666</v>
       </c>
       <c r="H15">
-        <v>0.6764037816012261</v>
+        <v>0.159143</v>
       </c>
       <c r="I15">
-        <v>0.2146676144867836</v>
+        <v>0.0142121733713151</v>
       </c>
       <c r="J15">
-        <v>0.2146676144867836</v>
+        <v>0.0142121733713151</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>144.889666909794</v>
+        <v>145.6413626666667</v>
       </c>
       <c r="N15">
-        <v>144.889666909794</v>
+        <v>436.924088</v>
       </c>
       <c r="O15">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076977</v>
       </c>
       <c r="P15">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076978</v>
       </c>
       <c r="Q15">
-        <v>98.00391861272668</v>
+        <v>7.725934459620443</v>
       </c>
       <c r="R15">
-        <v>98.00391861272668</v>
+        <v>69.53341013658398</v>
       </c>
       <c r="S15">
-        <v>0.0590142087558542</v>
+        <v>0.003672435367283981</v>
       </c>
       <c r="T15">
-        <v>0.0590142087558542</v>
+        <v>0.003672435367283981</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.6764037816012261</v>
+        <v>0.05304766666666666</v>
       </c>
       <c r="H16">
-        <v>0.6764037816012261</v>
+        <v>0.159143</v>
       </c>
       <c r="I16">
-        <v>0.2146676144867836</v>
+        <v>0.0142121733713151</v>
       </c>
       <c r="J16">
-        <v>0.2146676144867836</v>
+        <v>0.0142121733713151</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>68.0197589553707</v>
+        <v>72.77597066666667</v>
       </c>
       <c r="N16">
-        <v>68.0197589553707</v>
+        <v>218.327912</v>
       </c>
       <c r="O16">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="P16">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="Q16">
-        <v>46.0088221810166</v>
+        <v>3.860595433268444</v>
       </c>
       <c r="R16">
-        <v>46.0088221810166</v>
+        <v>34.745358899416</v>
       </c>
       <c r="S16">
-        <v>0.02770475176131273</v>
+        <v>0.001835090277041591</v>
       </c>
       <c r="T16">
-        <v>0.02770475176131273</v>
+        <v>0.001835090277041591</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.6764037816012261</v>
+        <v>0.05304766666666666</v>
       </c>
       <c r="H17">
-        <v>0.6764037816012261</v>
+        <v>0.159143</v>
       </c>
       <c r="I17">
-        <v>0.2146676144867836</v>
+        <v>0.0142121733713151</v>
       </c>
       <c r="J17">
-        <v>0.2146676144867836</v>
+        <v>0.0142121733713151</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>76.3464549930079</v>
+        <v>76.38610333333334</v>
       </c>
       <c r="N17">
-        <v>76.3464549930079</v>
+        <v>229.15831</v>
       </c>
       <c r="O17">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="P17">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="Q17">
-        <v>51.64103086911835</v>
+        <v>4.052104547592222</v>
       </c>
       <c r="R17">
-        <v>51.64103086911835</v>
+        <v>36.46894092833</v>
       </c>
       <c r="S17">
-        <v>0.03109625226436516</v>
+        <v>0.001926121963664833</v>
       </c>
       <c r="T17">
-        <v>0.03109625226436516</v>
+        <v>0.001926121963664834</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>23</v>
       </c>
-      <c r="C18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" t="s">
-        <v>27</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.6764037816012261</v>
+        <v>0.05304766666666666</v>
       </c>
       <c r="H18">
-        <v>0.6764037816012261</v>
+        <v>0.159143</v>
       </c>
       <c r="I18">
-        <v>0.2146676144867836</v>
+        <v>0.0142121733713151</v>
       </c>
       <c r="J18">
-        <v>0.2146676144867836</v>
+        <v>0.0142121733713151</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>57.0117183713711</v>
+        <v>58.18688599999999</v>
       </c>
       <c r="N18">
-        <v>57.0117183713711</v>
+        <v>174.560658</v>
       </c>
       <c r="O18">
-        <v>0.1081724772446483</v>
+        <v>0.10323668399826</v>
       </c>
       <c r="P18">
-        <v>0.1081724772446483</v>
+        <v>0.1032366839982601</v>
       </c>
       <c r="Q18">
-        <v>38.56294190197951</v>
+        <v>3.086678532899333</v>
       </c>
       <c r="R18">
-        <v>38.56294190197951</v>
+        <v>27.780106796094</v>
       </c>
       <c r="S18">
-        <v>0.02322112764323454</v>
+        <v>0.001467217651262943</v>
       </c>
       <c r="T18">
-        <v>0.02322112764323454</v>
+        <v>0.001467217651262943</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,805 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.05304766666666666</v>
+      </c>
+      <c r="H19">
+        <v>0.159143</v>
+      </c>
+      <c r="I19">
+        <v>0.0142121733713151</v>
+      </c>
+      <c r="J19">
+        <v>0.0142121733713151</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>115.8358916666667</v>
+      </c>
+      <c r="N19">
+        <v>347.5076749999999</v>
+      </c>
+      <c r="O19">
+        <v>0.2055190467427377</v>
+      </c>
+      <c r="P19">
+        <v>0.2055190467427377</v>
+      </c>
+      <c r="Q19">
+        <v>6.144823769169443</v>
+      </c>
+      <c r="R19">
+        <v>55.30341392252498</v>
+      </c>
+      <c r="S19">
+        <v>0.0029208723234152</v>
+      </c>
+      <c r="T19">
+        <v>0.0029208723234152</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.1428456666666667</v>
+      </c>
+      <c r="H20">
+        <v>0.428537</v>
+      </c>
+      <c r="I20">
+        <v>0.03827024839310091</v>
+      </c>
+      <c r="J20">
+        <v>0.03827024839310091</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>94.799851</v>
+      </c>
+      <c r="N20">
+        <v>284.399553</v>
+      </c>
+      <c r="O20">
+        <v>0.1681963571786457</v>
+      </c>
+      <c r="P20">
+        <v>0.1681963571786457</v>
+      </c>
+      <c r="Q20">
+        <v>13.54174791599567</v>
+      </c>
+      <c r="R20">
+        <v>121.875731243961</v>
+      </c>
+      <c r="S20">
+        <v>0.006436916368041491</v>
+      </c>
+      <c r="T20">
+        <v>0.006436916368041493</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.1428456666666667</v>
+      </c>
+      <c r="H21">
+        <v>0.428537</v>
+      </c>
+      <c r="I21">
+        <v>0.03827024839310091</v>
+      </c>
+      <c r="J21">
+        <v>0.03827024839310091</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>145.6413626666667</v>
+      </c>
+      <c r="N21">
+        <v>436.924088</v>
+      </c>
+      <c r="O21">
+        <v>0.2584006873076977</v>
+      </c>
+      <c r="P21">
+        <v>0.2584006873076978</v>
+      </c>
+      <c r="Q21">
+        <v>20.80423754436178</v>
+      </c>
+      <c r="R21">
+        <v>187.238137899256</v>
+      </c>
+      <c r="S21">
+        <v>0.00988905848821359</v>
+      </c>
+      <c r="T21">
+        <v>0.009889058488213592</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.1428456666666667</v>
+      </c>
+      <c r="H22">
+        <v>0.428537</v>
+      </c>
+      <c r="I22">
+        <v>0.03827024839310091</v>
+      </c>
+      <c r="J22">
+        <v>0.03827024839310091</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>72.77597066666667</v>
+      </c>
+      <c r="N22">
+        <v>218.327912</v>
+      </c>
+      <c r="O22">
+        <v>0.1291210168281099</v>
+      </c>
+      <c r="P22">
+        <v>0.1291210168281099</v>
+      </c>
+      <c r="Q22">
+        <v>10.39573204719378</v>
+      </c>
+      <c r="R22">
+        <v>93.561588424744</v>
+      </c>
+      <c r="S22">
+        <v>0.004941493386781528</v>
+      </c>
+      <c r="T22">
+        <v>0.004941493386781528</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.1428456666666667</v>
+      </c>
+      <c r="H23">
+        <v>0.428537</v>
+      </c>
+      <c r="I23">
+        <v>0.03827024839310091</v>
+      </c>
+      <c r="J23">
+        <v>0.03827024839310091</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>76.38610333333334</v>
+      </c>
+      <c r="N23">
+        <v>229.15831</v>
+      </c>
+      <c r="O23">
+        <v>0.1355262079445491</v>
+      </c>
+      <c r="P23">
+        <v>0.1355262079445491</v>
+      </c>
+      <c r="Q23">
+        <v>10.91142385471889</v>
+      </c>
+      <c r="R23">
+        <v>98.20281469247001</v>
+      </c>
+      <c r="S23">
+        <v>0.00518662164181294</v>
+      </c>
+      <c r="T23">
+        <v>0.005186621641812941</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.1428456666666667</v>
+      </c>
+      <c r="H24">
+        <v>0.428537</v>
+      </c>
+      <c r="I24">
+        <v>0.03827024839310091</v>
+      </c>
+      <c r="J24">
+        <v>0.03827024839310091</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>58.18688599999999</v>
+      </c>
+      <c r="N24">
+        <v>174.560658</v>
+      </c>
+      <c r="O24">
+        <v>0.10323668399826</v>
+      </c>
+      <c r="P24">
+        <v>0.1032366839982601</v>
+      </c>
+      <c r="Q24">
+        <v>8.311744521927332</v>
+      </c>
+      <c r="R24">
+        <v>74.805700697346</v>
+      </c>
+      <c r="S24">
+        <v>0.003950893539893478</v>
+      </c>
+      <c r="T24">
+        <v>0.003950893539893478</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.1428456666666667</v>
+      </c>
+      <c r="H25">
+        <v>0.428537</v>
+      </c>
+      <c r="I25">
+        <v>0.03827024839310091</v>
+      </c>
+      <c r="J25">
+        <v>0.03827024839310091</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>115.8358916666667</v>
+      </c>
+      <c r="N25">
+        <v>347.5076749999999</v>
+      </c>
+      <c r="O25">
+        <v>0.2055190467427377</v>
+      </c>
+      <c r="P25">
+        <v>0.2055190467427377</v>
+      </c>
+      <c r="Q25">
+        <v>16.54665516905278</v>
+      </c>
+      <c r="R25">
+        <v>148.919896521475</v>
+      </c>
+      <c r="S25">
+        <v>0.007865264968357889</v>
+      </c>
+      <c r="T25">
+        <v>0.007865264968357889</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.8420873333333333</v>
+      </c>
+      <c r="H26">
+        <v>2.526262</v>
+      </c>
+      <c r="I26">
+        <v>0.2256063636186651</v>
+      </c>
+      <c r="J26">
+        <v>0.2256063636186651</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>94.799851</v>
+      </c>
+      <c r="N26">
+        <v>284.399553</v>
+      </c>
+      <c r="O26">
+        <v>0.1681963571786457</v>
+      </c>
+      <c r="P26">
+        <v>0.1681963571786457</v>
+      </c>
+      <c r="Q26">
+        <v>79.82975372898733</v>
+      </c>
+      <c r="R26">
+        <v>718.4677835608861</v>
+      </c>
+      <c r="S26">
+        <v>0.03794616851698041</v>
+      </c>
+      <c r="T26">
+        <v>0.03794616851698042</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0.8420873333333333</v>
+      </c>
+      <c r="H27">
+        <v>2.526262</v>
+      </c>
+      <c r="I27">
+        <v>0.2256063636186651</v>
+      </c>
+      <c r="J27">
+        <v>0.2256063636186651</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>145.6413626666667</v>
+      </c>
+      <c r="N27">
+        <v>436.924088</v>
+      </c>
+      <c r="O27">
+        <v>0.2584006873076977</v>
+      </c>
+      <c r="P27">
+        <v>0.2584006873076978</v>
+      </c>
+      <c r="Q27">
+        <v>122.6427467110062</v>
+      </c>
+      <c r="R27">
+        <v>1103.784720399056</v>
+      </c>
+      <c r="S27">
+        <v>0.05829683942005344</v>
+      </c>
+      <c r="T27">
+        <v>0.05829683942005345</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
         <v>22</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>0.6764037816012261</v>
-      </c>
-      <c r="H19">
-        <v>0.6764037816012261</v>
-      </c>
-      <c r="I19">
-        <v>0.2146676144867836</v>
-      </c>
-      <c r="J19">
-        <v>0.2146676144867836</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>107.748102341015</v>
-      </c>
-      <c r="N19">
-        <v>107.748102341015</v>
-      </c>
-      <c r="O19">
-        <v>0.2044383063972043</v>
-      </c>
-      <c r="P19">
-        <v>0.2044383063972043</v>
-      </c>
-      <c r="Q19">
-        <v>72.88122388381846</v>
-      </c>
-      <c r="R19">
-        <v>72.88122388381846</v>
-      </c>
-      <c r="S19">
-        <v>0.043886283544006</v>
-      </c>
-      <c r="T19">
-        <v>0.043886283544006</v>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0.8420873333333333</v>
+      </c>
+      <c r="H28">
+        <v>2.526262</v>
+      </c>
+      <c r="I28">
+        <v>0.2256063636186651</v>
+      </c>
+      <c r="J28">
+        <v>0.2256063636186651</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>72.77597066666667</v>
+      </c>
+      <c r="N28">
+        <v>218.327912</v>
+      </c>
+      <c r="O28">
+        <v>0.1291210168281099</v>
+      </c>
+      <c r="P28">
+        <v>0.1291210168281099</v>
+      </c>
+      <c r="Q28">
+        <v>61.28372306943822</v>
+      </c>
+      <c r="R28">
+        <v>551.553507624944</v>
+      </c>
+      <c r="S28">
+        <v>0.02913052307333433</v>
+      </c>
+      <c r="T28">
+        <v>0.02913052307333433</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0.8420873333333333</v>
+      </c>
+      <c r="H29">
+        <v>2.526262</v>
+      </c>
+      <c r="I29">
+        <v>0.2256063636186651</v>
+      </c>
+      <c r="J29">
+        <v>0.2256063636186651</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>76.38610333333334</v>
+      </c>
+      <c r="N29">
+        <v>229.15831</v>
+      </c>
+      <c r="O29">
+        <v>0.1355262079445491</v>
+      </c>
+      <c r="P29">
+        <v>0.1355262079445491</v>
+      </c>
+      <c r="Q29">
+        <v>64.32377005969111</v>
+      </c>
+      <c r="R29">
+        <v>578.91393053722</v>
+      </c>
+      <c r="S29">
+        <v>0.03057557494939676</v>
+      </c>
+      <c r="T29">
+        <v>0.03057557494939677</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0.8420873333333333</v>
+      </c>
+      <c r="H30">
+        <v>2.526262</v>
+      </c>
+      <c r="I30">
+        <v>0.2256063636186651</v>
+      </c>
+      <c r="J30">
+        <v>0.2256063636186651</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>58.18688599999999</v>
+      </c>
+      <c r="N30">
+        <v>174.560658</v>
+      </c>
+      <c r="O30">
+        <v>0.10323668399826</v>
+      </c>
+      <c r="P30">
+        <v>0.1032366839982601</v>
+      </c>
+      <c r="Q30">
+        <v>48.99843966671066</v>
+      </c>
+      <c r="R30">
+        <v>440.985957000396</v>
+      </c>
+      <c r="S30">
+        <v>0.02329085286889668</v>
+      </c>
+      <c r="T30">
+        <v>0.02329085286889668</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0.8420873333333333</v>
+      </c>
+      <c r="H31">
+        <v>2.526262</v>
+      </c>
+      <c r="I31">
+        <v>0.2256063636186651</v>
+      </c>
+      <c r="J31">
+        <v>0.2256063636186651</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>115.8358916666667</v>
+      </c>
+      <c r="N31">
+        <v>347.5076749999999</v>
+      </c>
+      <c r="O31">
+        <v>0.2055190467427377</v>
+      </c>
+      <c r="P31">
+        <v>0.2055190467427377</v>
+      </c>
+      <c r="Q31">
+        <v>97.5439371178722</v>
+      </c>
+      <c r="R31">
+        <v>877.8954340608499</v>
+      </c>
+      <c r="S31">
+        <v>0.04636640479000352</v>
+      </c>
+      <c r="T31">
+        <v>0.04636640479000352</v>
       </c>
     </row>
   </sheetData>
